--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9399B14-843C-4344-A4F7-E353DE473F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D4438-27C8-46D7-B84C-91AC06ADCCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="9" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>IsPassive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motivation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,11 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,56 +500,56 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -567,15 +571,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,69 +592,72 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -658,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -681,41 +691,41 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -755,51 +765,51 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -841,74 +851,80 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -916,12 +932,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,15 +940,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,51 +958,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1029,46 +1042,46 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1105,7 +1118,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1117,75 +1130,75 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1218,84 +1231,90 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
@@ -1305,12 +1324,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,84 +1357,90 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
@@ -1431,12 +1450,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D4438-27C8-46D7-B84C-91AC06ADCCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3DE8-94C6-4194-BCAA-6A65AE2988E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="9" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,13 @@
   </si>
   <si>
     <t>Motivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Chance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,22 +476,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DE3FA-4876-4964-9707-AB4C26E74BFB}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -506,47 +616,47 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -569,20 +679,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:G10"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,457 +702,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1048,45 +716,39 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -1099,36 +761,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
-  <dimension ref="A1:H11"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1136,69 +793,446 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1207,18 +1241,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC4A18-D949-48E2-9724-68D518466AAC}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,99 +1265,102 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1332,19 +1369,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01E105B-6EE5-4C98-B430-04EA4FDF2FE5}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,99 +1394,102 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,15 +1498,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C82EB-5B3E-46AB-B0D9-32EA0E303A53}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,10 +1523,78 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F3DE8-94C6-4194-BCAA-6A65AE2988E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17880688-3B2D-435A-B2F6-DC4536EFED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>Chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyTargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyTargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,23 +484,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DE3FA-4876-4964-9707-AB4C26E74BFB}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="6" max="8" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,69 +519,75 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -582,19 +596,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,69 +624,75 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,20 +701,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,51 +730,57 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,15 +789,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,63 +813,69 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -852,15 +884,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,87 +908,93 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,15 +1003,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,51 +1027,57 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1042,19 +1086,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,57 +1117,63 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,20 +1182,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,75 +1214,81 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1241,18 +1297,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC4A18-D949-48E2-9724-68D518466AAC}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,99 +1324,105 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,19 +1431,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01E105B-6EE5-4C98-B430-04EA4FDF2FE5}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,99 +1459,105 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1498,15 +1566,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C82EB-5B3E-46AB-B0D9-32EA0E303A53}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,75 +1593,81 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17880688-3B2D-435A-B2F6-DC4536EFED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A5511-43CB-4BF6-9EBE-C25C0110F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3495" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" firstSheet="5" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,17 @@
   </si>
   <si>
     <t>ApplyTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotivationStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackCount</t>
+  </si>
+  <si>
+    <t>MaxStackCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,23 +495,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DE3FA-4876-4964-9707-AB4C26E74BFB}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,13 +520,237 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -531,57 +767,39 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
@@ -594,21 +812,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:J10"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,503 +830,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1129,45 +853,51 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
@@ -1180,36 +910,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
-  <dimension ref="A1:K11"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1221,74 +946,394 @@
         <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,18 +1342,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC4A18-D949-48E2-9724-68D518466AAC}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1316,113 +1362,116 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,19 +1480,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01E105B-6EE5-4C98-B430-04EA4FDF2FE5}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1451,113 +1501,116 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H4" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H5" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,15 +1619,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C82EB-5B3E-46AB-B0D9-32EA0E303A53}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1582,92 +1635,95 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A5511-43CB-4BF6-9EBE-C25C0110F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3726C3-744E-45FB-9370-89552B918036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" firstSheet="5" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="10070" yWindow="5780" windowWidth="24900" windowHeight="11860" firstSheet="5" activeTab="9" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="AreaAimedStatusAbility" sheetId="1" r:id="rId1"/>
     <sheet name="AreaCastAbility" sheetId="2" r:id="rId2"/>
     <sheet name="AreaDurationAbility" sheetId="3" r:id="rId3"/>
     <sheet name="AreaMotivatedAbility" sheetId="4" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="20">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>MaxStackCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotivationComparerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +502,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -611,19 +615,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,77 +647,80 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J2" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J3" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J4" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J5" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J6" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J7" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J8" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J9" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J10" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1034,15 +1041,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,59 +1069,62 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J2" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J3" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J4" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J5" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J6" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="J7" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,7 +1136,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
